--- a/CumulativeTestsByTypeByCounty/2021-02-03.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-02-03.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>45217</v>
+        <v>45575</v>
       </c>
       <c r="C2" s="4">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D2" s="4">
-        <v>4519</v>
+        <v>4525</v>
       </c>
       <c r="E2" s="4">
-        <v>51113</v>
+        <v>51478</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3753</v>
+        <v>3760</v>
       </c>
       <c r="C3" s="4">
         <v>173</v>
       </c>
       <c r="D3" s="4">
-        <v>1676</v>
+        <v>1701</v>
       </c>
       <c r="E3" s="4">
-        <v>5602</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>46283</v>
+        <v>46486</v>
       </c>
       <c r="C4" s="4">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="D4" s="4">
-        <v>12614</v>
+        <v>12664</v>
       </c>
       <c r="E4" s="4">
-        <v>60266</v>
+        <v>60522</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>5885</v>
+        <v>5923</v>
       </c>
       <c r="C5" s="4">
-        <v>1895</v>
+        <v>1906</v>
       </c>
       <c r="D5" s="4">
-        <v>3668</v>
+        <v>3694</v>
       </c>
       <c r="E5" s="4">
-        <v>11448</v>
+        <v>11523</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2603</v>
+        <v>2606</v>
       </c>
       <c r="C6" s="4">
         <v>102</v>
       </c>
       <c r="D6" s="4">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E6" s="4">
-        <v>3039</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>34763</v>
+        <v>35657</v>
       </c>
       <c r="C8" s="4">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="D8" s="4">
-        <v>2995</v>
+        <v>3018</v>
       </c>
       <c r="E8" s="4">
-        <v>38676</v>
+        <v>39598</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>14422</v>
+        <v>14496</v>
       </c>
       <c r="C9" s="4">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D9" s="4">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E9" s="4">
-        <v>15265</v>
+        <v>15349</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C10" s="4">
         <v>14</v>
       </c>
       <c r="D10" s="4">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E10" s="4">
-        <v>2020</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>6205</v>
+        <v>6239</v>
       </c>
       <c r="C11" s="4">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D11" s="4">
-        <v>2197</v>
+        <v>2210</v>
       </c>
       <c r="E11" s="4">
-        <v>8774</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>40837</v>
+        <v>40954</v>
       </c>
       <c r="C12" s="4">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D12" s="4">
-        <v>10944</v>
+        <v>10975</v>
       </c>
       <c r="E12" s="4">
-        <v>52762</v>
+        <v>52911</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C13" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="E13" s="4">
-        <v>1682</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>26661</v>
+        <v>26747</v>
       </c>
       <c r="C14" s="4">
-        <v>4616</v>
+        <v>4666</v>
       </c>
       <c r="D14" s="4">
-        <v>4690</v>
+        <v>4741</v>
       </c>
       <c r="E14" s="4">
-        <v>35967</v>
+        <v>36154</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>198863</v>
+        <v>199637</v>
       </c>
       <c r="C15" s="4">
-        <v>12297</v>
+        <v>12345</v>
       </c>
       <c r="D15" s="4">
-        <v>6929</v>
+        <v>7033</v>
       </c>
       <c r="E15" s="4">
-        <v>218089</v>
+        <v>219015</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1331809</v>
+        <v>1341580</v>
       </c>
       <c r="C16" s="4">
-        <v>39461</v>
+        <v>39531</v>
       </c>
       <c r="D16" s="4">
-        <v>121762</v>
+        <v>123315</v>
       </c>
       <c r="E16" s="4">
-        <v>1493032</v>
+        <v>1504426</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4646</v>
+        <v>4675</v>
       </c>
       <c r="C17" s="4">
         <v>198</v>
       </c>
       <c r="D17" s="4">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E17" s="4">
-        <v>5238</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7682</v>
+        <v>7707</v>
       </c>
       <c r="C19" s="4">
         <v>451</v>
       </c>
       <c r="D19" s="4">
-        <v>3547</v>
+        <v>3562</v>
       </c>
       <c r="E19" s="4">
-        <v>11680</v>
+        <v>11720</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>51192</v>
+        <v>51307</v>
       </c>
       <c r="C20" s="4">
-        <v>9555</v>
+        <v>9558</v>
       </c>
       <c r="D20" s="4">
-        <v>5139</v>
+        <v>5387</v>
       </c>
       <c r="E20" s="4">
-        <v>65886</v>
+        <v>66252</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>249718</v>
+        <v>250792</v>
       </c>
       <c r="C21" s="4">
-        <v>7847</v>
+        <v>7891</v>
       </c>
       <c r="D21" s="4">
-        <v>18034</v>
+        <v>18232</v>
       </c>
       <c r="E21" s="4">
-        <v>275599</v>
+        <v>276915</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>191682</v>
+        <v>192112</v>
       </c>
       <c r="C22" s="4">
-        <v>5059</v>
+        <v>5081</v>
       </c>
       <c r="D22" s="4">
-        <v>9436</v>
+        <v>9478</v>
       </c>
       <c r="E22" s="4">
-        <v>206177</v>
+        <v>206671</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8055</v>
+        <v>8062</v>
       </c>
       <c r="C23" s="4">
         <v>101</v>
       </c>
       <c r="D23" s="4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E23" s="4">
-        <v>8408</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>11747</v>
+        <v>11752</v>
       </c>
       <c r="C25" s="4">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="D25" s="4">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="E25" s="4">
-        <v>13952</v>
+        <v>13971</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>14424</v>
+        <v>14452</v>
       </c>
       <c r="C26" s="4">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D26" s="4">
-        <v>13704</v>
+        <v>13712</v>
       </c>
       <c r="E26" s="4">
-        <v>28805</v>
+        <v>28843</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>11305</v>
+        <v>11380</v>
       </c>
       <c r="C27" s="4">
         <v>220</v>
       </c>
       <c r="D27" s="4">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E27" s="4">
-        <v>12268</v>
+        <v>12347</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>26616</v>
+        <v>26714</v>
       </c>
       <c r="C28" s="4">
         <v>981</v>
       </c>
       <c r="D28" s="4">
-        <v>1928</v>
+        <v>1954</v>
       </c>
       <c r="E28" s="4">
-        <v>29525</v>
+        <v>29649</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>26203</v>
+        <v>26322</v>
       </c>
       <c r="C29" s="4">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D29" s="4">
-        <v>3498</v>
+        <v>3613</v>
       </c>
       <c r="E29" s="4">
-        <v>31145</v>
+        <v>31380</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>11405</v>
+        <v>11457</v>
       </c>
       <c r="C30" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D30" s="4">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="E30" s="4">
-        <v>14225</v>
+        <v>14281</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4530</v>
+        <v>4581</v>
       </c>
       <c r="C31" s="4">
         <v>210</v>
       </c>
       <c r="D31" s="4">
-        <v>3384</v>
+        <v>3393</v>
       </c>
       <c r="E31" s="4">
-        <v>8124</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>202526</v>
+        <v>203021</v>
       </c>
       <c r="C32" s="4">
-        <v>6907</v>
+        <v>6917</v>
       </c>
       <c r="D32" s="4">
-        <v>25496</v>
+        <v>25652</v>
       </c>
       <c r="E32" s="4">
-        <v>234929</v>
+        <v>235590</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>4883</v>
+        <v>4890</v>
       </c>
       <c r="C33" s="4">
         <v>322</v>
@@ -1607,7 +1607,7 @@
         <v>1081</v>
       </c>
       <c r="E33" s="4">
-        <v>6286</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,7 +1615,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C34" s="4">
         <v>510</v>
@@ -1624,7 +1624,7 @@
         <v>159</v>
       </c>
       <c r="E34" s="4">
-        <v>2082</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10440</v>
+        <v>10455</v>
       </c>
       <c r="C35" s="4">
         <v>3033</v>
       </c>
       <c r="D35" s="4">
-        <v>2093</v>
+        <v>2124</v>
       </c>
       <c r="E35" s="4">
-        <v>15566</v>
+        <v>15612</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3416</v>
+        <v>3419</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
       </c>
       <c r="D36" s="4">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E36" s="4">
-        <v>4871</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6620</v>
+        <v>6652</v>
       </c>
       <c r="C37" s="4">
         <v>513</v>
       </c>
       <c r="D37" s="4">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E37" s="4">
-        <v>7911</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>19259</v>
+        <v>19298</v>
       </c>
       <c r="C38" s="4">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D38" s="4">
-        <v>5131</v>
+        <v>5136</v>
       </c>
       <c r="E38" s="4">
-        <v>25086</v>
+        <v>25133</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1706,10 +1706,10 @@
         <v>124</v>
       </c>
       <c r="D39" s="4">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="E39" s="4">
-        <v>6100</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3566</v>
+        <v>3570</v>
       </c>
       <c r="C40" s="4">
         <v>102</v>
       </c>
       <c r="D40" s="4">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="E40" s="4">
-        <v>4457</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C41" s="4">
         <v>14</v>
@@ -1743,7 +1743,7 @@
         <v>220</v>
       </c>
       <c r="E41" s="4">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C42" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="4">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="E42" s="4">
-        <v>3224</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2718</v>
+        <v>2734</v>
       </c>
       <c r="C43" s="4">
         <v>70</v>
       </c>
       <c r="D43" s="4">
-        <v>2096</v>
+        <v>2102</v>
       </c>
       <c r="E43" s="4">
-        <v>4884</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>721432</v>
+        <v>724443</v>
       </c>
       <c r="C44" s="4">
-        <v>72185</v>
+        <v>72304</v>
       </c>
       <c r="D44" s="4">
-        <v>57295</v>
+        <v>58334</v>
       </c>
       <c r="E44" s="4">
-        <v>850912</v>
+        <v>855081</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C45" s="4">
         <v>13</v>
       </c>
       <c r="D45" s="4">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E45" s="4">
-        <v>1880</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10020</v>
+        <v>10035</v>
       </c>
       <c r="C46" s="4">
         <v>249</v>
       </c>
       <c r="D46" s="4">
-        <v>2424</v>
+        <v>2470</v>
       </c>
       <c r="E46" s="4">
-        <v>12693</v>
+        <v>12754</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>75929</v>
+        <v>76317</v>
       </c>
       <c r="C47" s="4">
-        <v>6081</v>
+        <v>6088</v>
       </c>
       <c r="D47" s="4">
-        <v>11852</v>
+        <v>12020</v>
       </c>
       <c r="E47" s="4">
-        <v>93862</v>
+        <v>94425</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5794</v>
+        <v>5801</v>
       </c>
       <c r="C48" s="4">
         <v>281</v>
       </c>
       <c r="D48" s="4">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="E48" s="4">
-        <v>7870</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="C49" s="4">
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="E49" s="4">
-        <v>2303</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>20271</v>
+        <v>20311</v>
       </c>
       <c r="C50" s="4">
         <v>1162</v>
       </c>
       <c r="D50" s="4">
-        <v>3429</v>
+        <v>3457</v>
       </c>
       <c r="E50" s="4">
-        <v>24862</v>
+        <v>24930</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>71084</v>
+        <v>71150</v>
       </c>
       <c r="C51" s="4">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="D51" s="4">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="E51" s="4">
-        <v>75075</v>
+        <v>75159</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1944,10 +1944,10 @@
         <v>59</v>
       </c>
       <c r="D53" s="4">
-        <v>882</v>
+        <v>903</v>
       </c>
       <c r="E53" s="4">
-        <v>4476</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C54" s="4">
         <v>11</v>
       </c>
       <c r="D54" s="4">
-        <v>1570</v>
+        <v>1592</v>
       </c>
       <c r="E54" s="4">
-        <v>2485</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="C55" s="4">
         <v>17</v>
       </c>
       <c r="D55" s="4">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="E55" s="4">
-        <v>3466</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>34</v>
       </c>
       <c r="E56" s="4">
-        <v>1952</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C57" s="4">
         <v>54</v>
       </c>
       <c r="D57" s="4">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="E57" s="4">
-        <v>2084</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1852915</v>
+        <v>1860187</v>
       </c>
       <c r="C58" s="4">
-        <v>118535</v>
+        <v>118822</v>
       </c>
       <c r="D58" s="4">
-        <v>122268</v>
+        <v>123713</v>
       </c>
       <c r="E58" s="4">
-        <v>2093718</v>
+        <v>2102722</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>6807</v>
+        <v>6810</v>
       </c>
       <c r="C59" s="4">
         <v>413</v>
       </c>
       <c r="D59" s="4">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="E59" s="4">
-        <v>8871</v>
+        <v>8878</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>6938</v>
+        <v>6946</v>
       </c>
       <c r="C60" s="4">
         <v>162</v>
       </c>
       <c r="D60" s="4">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="E60" s="4">
-        <v>8897</v>
+        <v>8915</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,7 +2074,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4089</v>
+        <v>4096</v>
       </c>
       <c r="C61" s="4">
         <v>245</v>
@@ -2083,7 +2083,7 @@
         <v>1593</v>
       </c>
       <c r="E61" s="4">
-        <v>5927</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="C62" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="4">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E62" s="4">
-        <v>2488</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>448173</v>
+        <v>451098</v>
       </c>
       <c r="C63" s="4">
-        <v>52878</v>
+        <v>53035</v>
       </c>
       <c r="D63" s="4">
-        <v>48465</v>
+        <v>49238</v>
       </c>
       <c r="E63" s="4">
-        <v>549516</v>
+        <v>553371</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2131,10 +2131,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="4">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E64" s="4">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>7808</v>
+        <v>7866</v>
       </c>
       <c r="C65" s="4">
         <v>80</v>
@@ -2151,7 +2151,7 @@
         <v>426</v>
       </c>
       <c r="E65" s="4">
-        <v>8314</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C66" s="4">
         <v>191</v>
       </c>
       <c r="D66" s="4">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E66" s="4">
-        <v>1756</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>14518</v>
+        <v>14530</v>
       </c>
       <c r="C67" s="4">
-        <v>2017</v>
+        <v>2027</v>
       </c>
       <c r="D67" s="4">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="E67" s="4">
-        <v>17410</v>
+        <v>17443</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>3981</v>
+        <v>3991</v>
       </c>
       <c r="C68" s="4">
         <v>303</v>
       </c>
       <c r="D68" s="4">
-        <v>2587</v>
+        <v>2599</v>
       </c>
       <c r="E68" s="4">
-        <v>6871</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>51171</v>
+        <v>51299</v>
       </c>
       <c r="C69" s="4">
-        <v>3973</v>
+        <v>3990</v>
       </c>
       <c r="D69" s="4">
-        <v>10850</v>
+        <v>11002</v>
       </c>
       <c r="E69" s="4">
-        <v>65994</v>
+        <v>66291</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E70" s="4">
-        <v>1368</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>702535</v>
+        <v>704825</v>
       </c>
       <c r="C71" s="4">
-        <v>15172</v>
+        <v>15185</v>
       </c>
       <c r="D71" s="4">
-        <v>91558</v>
+        <v>91864</v>
       </c>
       <c r="E71" s="4">
-        <v>809265</v>
+        <v>811874</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>131664</v>
+        <v>132352</v>
       </c>
       <c r="C72" s="4">
-        <v>6423</v>
+        <v>6429</v>
       </c>
       <c r="D72" s="4">
-        <v>6072</v>
+        <v>6192</v>
       </c>
       <c r="E72" s="4">
-        <v>144159</v>
+        <v>144973</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>14674</v>
+        <v>14713</v>
       </c>
       <c r="C73" s="4">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D73" s="4">
-        <v>3893</v>
+        <v>3911</v>
       </c>
       <c r="E73" s="4">
-        <v>19583</v>
+        <v>19641</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>10886</v>
+        <v>10912</v>
       </c>
       <c r="C74" s="4">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D74" s="4">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="E74" s="4">
-        <v>12488</v>
+        <v>12521</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>20477</v>
+        <v>20494</v>
       </c>
       <c r="C75" s="4">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D75" s="4">
-        <v>2985</v>
+        <v>3020</v>
       </c>
       <c r="E75" s="4">
-        <v>24158</v>
+        <v>24211</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>11710</v>
+        <v>11722</v>
       </c>
       <c r="C76" s="4">
         <v>332</v>
       </c>
       <c r="D76" s="4">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="E76" s="4">
-        <v>13280</v>
+        <v>13293</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="C77" s="4">
         <v>27</v>
       </c>
       <c r="D77" s="4">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E77" s="4">
-        <v>1451</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,7 +2363,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="C78" s="4">
         <v>106</v>
@@ -2372,7 +2372,7 @@
         <v>267</v>
       </c>
       <c r="E78" s="4">
-        <v>2336</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2386,10 +2386,10 @@
         <v>6</v>
       </c>
       <c r="D79" s="4">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="E79" s="4">
-        <v>878</v>
+        <v>935</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>504883</v>
+        <v>508632</v>
       </c>
       <c r="C80" s="4">
-        <v>19113</v>
+        <v>19208</v>
       </c>
       <c r="D80" s="4">
-        <v>18193</v>
+        <v>18595</v>
       </c>
       <c r="E80" s="4">
-        <v>542189</v>
+        <v>546435</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,7 +2414,7 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3670</v>
+        <v>3676</v>
       </c>
       <c r="C81" s="4">
         <v>426</v>
@@ -2423,7 +2423,7 @@
         <v>512</v>
       </c>
       <c r="E81" s="4">
-        <v>4608</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>11689</v>
+        <v>11704</v>
       </c>
       <c r="C82" s="4">
         <v>611</v>
       </c>
       <c r="D82" s="4">
-        <v>2564</v>
+        <v>2577</v>
       </c>
       <c r="E82" s="4">
-        <v>14864</v>
+        <v>14892</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>12738</v>
+        <v>12811</v>
       </c>
       <c r="C83" s="4">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D83" s="4">
         <v>356</v>
       </c>
       <c r="E83" s="4">
-        <v>13474</v>
+        <v>13548</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2933</v>
+        <v>2943</v>
       </c>
       <c r="C84" s="4">
         <v>190</v>
       </c>
       <c r="D84" s="4">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E84" s="4">
-        <v>3744</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>265420</v>
+        <v>266089</v>
       </c>
       <c r="C85" s="4">
-        <v>8075</v>
+        <v>8133</v>
       </c>
       <c r="D85" s="4">
-        <v>14184</v>
+        <v>14476</v>
       </c>
       <c r="E85" s="4">
-        <v>287679</v>
+        <v>288698</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C86" s="4">
         <v>43</v>
       </c>
       <c r="D86" s="4">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E86" s="4">
-        <v>2596</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>13982</v>
+        <v>14005</v>
       </c>
       <c r="C87" s="4">
         <v>309</v>
       </c>
       <c r="D87" s="4">
-        <v>2288</v>
+        <v>2363</v>
       </c>
       <c r="E87" s="4">
-        <v>16579</v>
+        <v>16677</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>25</v>
       </c>
       <c r="D88" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E88" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2168</v>
+        <v>2174</v>
       </c>
       <c r="C89" s="4">
         <v>142</v>
       </c>
       <c r="D89" s="4">
-        <v>1136</v>
+        <v>1147</v>
       </c>
       <c r="E89" s="4">
-        <v>3446</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>10991</v>
+        <v>11024</v>
       </c>
       <c r="C90" s="4">
         <v>275</v>
       </c>
       <c r="D90" s="4">
-        <v>2287</v>
+        <v>2307</v>
       </c>
       <c r="E90" s="4">
-        <v>13553</v>
+        <v>13606</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6620</v>
+        <v>6624</v>
       </c>
       <c r="C91" s="4">
         <v>259</v>
       </c>
       <c r="D91" s="4">
-        <v>1287</v>
+        <v>1296</v>
       </c>
       <c r="E91" s="4">
-        <v>8166</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>83404</v>
+        <v>83550</v>
       </c>
       <c r="C92" s="4">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="D92" s="4">
-        <v>8720</v>
+        <v>8782</v>
       </c>
       <c r="E92" s="4">
-        <v>95464</v>
+        <v>95673</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>40045</v>
+        <v>40173</v>
       </c>
       <c r="C93" s="4">
-        <v>8613</v>
+        <v>8630</v>
       </c>
       <c r="D93" s="4">
-        <v>10087</v>
+        <v>10154</v>
       </c>
       <c r="E93" s="4">
-        <v>58745</v>
+        <v>58957</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>21241</v>
+        <v>21282</v>
       </c>
       <c r="C94" s="4">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D94" s="4">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="E94" s="4">
-        <v>22692</v>
+        <v>22743</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>59197</v>
+        <v>59464</v>
       </c>
       <c r="C95" s="4">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="D95" s="4">
-        <v>9798</v>
+        <v>9865</v>
       </c>
       <c r="E95" s="4">
-        <v>71777</v>
+        <v>72115</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>11079</v>
+        <v>11091</v>
       </c>
       <c r="C96" s="4">
         <v>239</v>
       </c>
       <c r="D96" s="4">
-        <v>1587</v>
+        <v>1599</v>
       </c>
       <c r="E96" s="4">
-        <v>12905</v>
+        <v>12929</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,7 +2686,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C97" s="4">
         <v>21</v>
@@ -2695,7 +2695,7 @@
         <v>1699</v>
       </c>
       <c r="E97" s="4">
-        <v>2757</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4163</v>
+        <v>4169</v>
       </c>
       <c r="C98" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="4">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E98" s="4">
-        <v>5198</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,13 +2723,13 @@
         <v>1111</v>
       </c>
       <c r="C99" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D99" s="4">
         <v>1451</v>
       </c>
       <c r="E99" s="4">
-        <v>2897</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2743,10 +2743,10 @@
         <v>57</v>
       </c>
       <c r="D100" s="4">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="E100" s="4">
-        <v>2075</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>16055</v>
+        <v>16140</v>
       </c>
       <c r="C101" s="4">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="D101" s="4">
-        <v>4000</v>
+        <v>4034</v>
       </c>
       <c r="E101" s="4">
-        <v>23082</v>
+        <v>23203</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3091678</v>
+        <v>3111650</v>
       </c>
       <c r="C102" s="4">
-        <v>116657</v>
+        <v>116972</v>
       </c>
       <c r="D102" s="4">
-        <v>170634</v>
+        <v>173733</v>
       </c>
       <c r="E102" s="4">
-        <v>3378969</v>
+        <v>3402355</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>49822</v>
+        <v>49922</v>
       </c>
       <c r="C103" s="4">
-        <v>6269</v>
+        <v>6288</v>
       </c>
       <c r="D103" s="4">
-        <v>5706</v>
+        <v>5744</v>
       </c>
       <c r="E103" s="4">
-        <v>61797</v>
+        <v>61954</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="C105" s="4">
         <v>31</v>
       </c>
       <c r="D105" s="4">
-        <v>1103</v>
+        <v>1115</v>
       </c>
       <c r="E105" s="4">
-        <v>2248</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>180343</v>
+        <v>181332</v>
       </c>
       <c r="C106" s="4">
-        <v>9622</v>
+        <v>9641</v>
       </c>
       <c r="D106" s="4">
-        <v>8034</v>
+        <v>8124</v>
       </c>
       <c r="E106" s="4">
-        <v>197999</v>
+        <v>199097</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2862,10 +2862,10 @@
         <v>112</v>
       </c>
       <c r="D107" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E107" s="4">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>22420</v>
+        <v>22509</v>
       </c>
       <c r="C108" s="4">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="D108" s="4">
-        <v>4826</v>
+        <v>4850</v>
       </c>
       <c r="E108" s="4">
-        <v>29218</v>
+        <v>29335</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>362436</v>
+        <v>363418</v>
       </c>
       <c r="C109" s="4">
-        <v>13301</v>
+        <v>13320</v>
       </c>
       <c r="D109" s="4">
-        <v>60373</v>
+        <v>60902</v>
       </c>
       <c r="E109" s="4">
-        <v>436110</v>
+        <v>437640</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>28521</v>
+        <v>28672</v>
       </c>
       <c r="C110" s="4">
         <v>933</v>
       </c>
       <c r="D110" s="4">
-        <v>3953</v>
+        <v>3989</v>
       </c>
       <c r="E110" s="4">
-        <v>33407</v>
+        <v>33594</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6704</v>
+        <v>6711</v>
       </c>
       <c r="C111" s="4">
         <v>73</v>
       </c>
       <c r="D111" s="4">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="E111" s="4">
-        <v>9168</v>
+        <v>9178</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>29466</v>
+        <v>29600</v>
       </c>
       <c r="C112" s="4">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="D112" s="4">
-        <v>13411</v>
+        <v>13449</v>
       </c>
       <c r="E112" s="4">
-        <v>45047</v>
+        <v>45221</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>14263</v>
+        <v>14369</v>
       </c>
       <c r="C113" s="4">
         <v>1775</v>
       </c>
       <c r="D113" s="4">
-        <v>1837</v>
+        <v>1841</v>
       </c>
       <c r="E113" s="4">
-        <v>17875</v>
+        <v>17985</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13173</v>
+        <v>13196</v>
       </c>
       <c r="C114" s="4">
         <v>309</v>
       </c>
       <c r="D114" s="4">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="E114" s="4">
-        <v>15080</v>
+        <v>15107</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,7 +2992,7 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>13229</v>
+        <v>13239</v>
       </c>
       <c r="C115" s="4">
         <v>400</v>
@@ -3001,7 +3001,7 @@
         <v>2928</v>
       </c>
       <c r="E115" s="4">
-        <v>16557</v>
+        <v>16567</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="C116" s="4">
         <v>25</v>
       </c>
       <c r="D116" s="4">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E116" s="4">
-        <v>2694</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>61892</v>
+        <v>62149</v>
       </c>
       <c r="C117" s="4">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="D117" s="4">
-        <v>6365</v>
+        <v>6414</v>
       </c>
       <c r="E117" s="4">
-        <v>71526</v>
+        <v>71835</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7595</v>
+        <v>7601</v>
       </c>
       <c r="C118" s="4">
         <v>442</v>
       </c>
       <c r="D118" s="4">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="E118" s="4">
-        <v>10306</v>
+        <v>10313</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C119" s="4">
         <v>8</v>
       </c>
       <c r="D119" s="4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E119" s="4">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,7 +3077,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="C120" s="4">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>201</v>
       </c>
       <c r="E120" s="4">
-        <v>1735</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6074</v>
+        <v>6087</v>
       </c>
       <c r="C121" s="4">
         <v>109</v>
       </c>
       <c r="D121" s="4">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="E121" s="4">
-        <v>7001</v>
+        <v>7029</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>11030</v>
+        <v>11077</v>
       </c>
       <c r="C122" s="4">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="D122" s="4">
-        <v>2060</v>
+        <v>2096</v>
       </c>
       <c r="E122" s="4">
-        <v>15544</v>
+        <v>15629</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3134,10 +3134,10 @@
         <v>23</v>
       </c>
       <c r="D123" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E123" s="4">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>135502</v>
+        <v>136214</v>
       </c>
       <c r="C124" s="4">
-        <v>11186</v>
+        <v>11197</v>
       </c>
       <c r="D124" s="4">
-        <v>19335</v>
+        <v>19598</v>
       </c>
       <c r="E124" s="4">
-        <v>166023</v>
+        <v>167009</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>10553</v>
+        <v>10591</v>
       </c>
       <c r="C125" s="4">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D125" s="4">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E125" s="4">
-        <v>11379</v>
+        <v>11422</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>39996</v>
+        <v>40078</v>
       </c>
       <c r="C126" s="4">
-        <v>6569</v>
+        <v>6612</v>
       </c>
       <c r="D126" s="4">
-        <v>9332</v>
+        <v>9395</v>
       </c>
       <c r="E126" s="4">
-        <v>55897</v>
+        <v>56085</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>96498</v>
+        <v>96858</v>
       </c>
       <c r="C127" s="4">
-        <v>5966</v>
+        <v>5974</v>
       </c>
       <c r="D127" s="4">
-        <v>9589</v>
+        <v>9760</v>
       </c>
       <c r="E127" s="4">
-        <v>112053</v>
+        <v>112592</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5170</v>
+        <v>5191</v>
       </c>
       <c r="C128" s="4">
         <v>180</v>
       </c>
       <c r="D128" s="4">
-        <v>1973</v>
+        <v>1998</v>
       </c>
       <c r="E128" s="4">
-        <v>7323</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>11437</v>
+        <v>11484</v>
       </c>
       <c r="C129" s="4">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D129" s="4">
-        <v>2981</v>
+        <v>2986</v>
       </c>
       <c r="E129" s="4">
-        <v>14771</v>
+        <v>14824</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>82971</v>
+        <v>83338</v>
       </c>
       <c r="C130" s="4">
-        <v>4594</v>
+        <v>4604</v>
       </c>
       <c r="D130" s="4">
-        <v>9649</v>
+        <v>9755</v>
       </c>
       <c r="E130" s="4">
-        <v>97214</v>
+        <v>97697</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>17799</v>
+        <v>17882</v>
       </c>
       <c r="C131" s="4">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="D131" s="4">
-        <v>4688</v>
+        <v>4760</v>
       </c>
       <c r="E131" s="4">
-        <v>23572</v>
+        <v>23731</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E133" s="4">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>25259</v>
+        <v>25283</v>
       </c>
       <c r="C134" s="4">
         <v>531</v>
       </c>
       <c r="D134" s="4">
-        <v>14544</v>
+        <v>14690</v>
       </c>
       <c r="E134" s="4">
-        <v>40334</v>
+        <v>40504</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3338,10 +3338,10 @@
         <v>36</v>
       </c>
       <c r="D135" s="4">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E135" s="4">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1805</v>
+        <v>1810</v>
       </c>
       <c r="C137" s="4">
         <v>37</v>
@@ -3375,7 +3375,7 @@
         <v>60</v>
       </c>
       <c r="E137" s="4">
-        <v>1902</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>22333</v>
+        <v>22372</v>
       </c>
       <c r="C138" s="4">
-        <v>3632</v>
+        <v>3664</v>
       </c>
       <c r="D138" s="4">
-        <v>3856</v>
+        <v>3896</v>
       </c>
       <c r="E138" s="4">
-        <v>29821</v>
+        <v>29932</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C139" s="4">
         <v>31</v>
       </c>
       <c r="D139" s="4">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="E139" s="4">
-        <v>2363</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,7 +3417,7 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6138</v>
+        <v>6148</v>
       </c>
       <c r="C140" s="4">
         <v>267</v>
@@ -3426,7 +3426,7 @@
         <v>163</v>
       </c>
       <c r="E140" s="4">
-        <v>6568</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>18121</v>
+        <v>18151</v>
       </c>
       <c r="C141" s="4">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="D141" s="4">
-        <v>1820</v>
+        <v>1890</v>
       </c>
       <c r="E141" s="4">
-        <v>21881</v>
+        <v>21985</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>4931</v>
+        <v>4933</v>
       </c>
       <c r="C142" s="4">
         <v>71</v>
       </c>
       <c r="D142" s="4">
-        <v>3216</v>
+        <v>3248</v>
       </c>
       <c r="E142" s="4">
-        <v>8218</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>13291</v>
+        <v>13322</v>
       </c>
       <c r="C143" s="4">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D143" s="4">
-        <v>2096</v>
+        <v>2109</v>
       </c>
       <c r="E143" s="4">
-        <v>15964</v>
+        <v>16009</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>9762</v>
+        <v>9781</v>
       </c>
       <c r="C144" s="4">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D144" s="4">
-        <v>1815</v>
+        <v>1829</v>
       </c>
       <c r="E144" s="4">
-        <v>11925</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6650</v>
+        <v>6684</v>
       </c>
       <c r="C145" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D145" s="4">
-        <v>1792</v>
+        <v>1801</v>
       </c>
       <c r="E145" s="4">
-        <v>8635</v>
+        <v>8679</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>7803</v>
+        <v>7835</v>
       </c>
       <c r="C146" s="4">
         <v>438</v>
       </c>
       <c r="D146" s="4">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E146" s="4">
-        <v>9236</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>39958</v>
+        <v>41702</v>
       </c>
       <c r="C147" s="4">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="D147" s="4">
-        <v>3416</v>
+        <v>3478</v>
       </c>
       <c r="E147" s="4">
-        <v>46044</v>
+        <v>47853</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>24364</v>
+        <v>24426</v>
       </c>
       <c r="C148" s="4">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D148" s="4">
-        <v>2795</v>
+        <v>2809</v>
       </c>
       <c r="E148" s="4">
-        <v>27697</v>
+        <v>27776</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4147</v>
+        <v>4165</v>
       </c>
       <c r="C150" s="4">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D150" s="4">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E150" s="4">
-        <v>5393</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8189</v>
+        <v>8220</v>
       </c>
       <c r="C151" s="4">
         <v>292</v>
       </c>
       <c r="D151" s="4">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="E151" s="4">
-        <v>9083</v>
+        <v>9146</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>168787</v>
+        <v>169205</v>
       </c>
       <c r="C153" s="4">
-        <v>6036</v>
+        <v>6041</v>
       </c>
       <c r="D153" s="4">
-        <v>71866</v>
+        <v>71923</v>
       </c>
       <c r="E153" s="4">
-        <v>246689</v>
+        <v>247169</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="C154" s="4">
         <v>81</v>
       </c>
       <c r="D154" s="4">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E154" s="4">
-        <v>3898</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,7 +3672,7 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10418</v>
+        <v>10436</v>
       </c>
       <c r="C155" s="4">
         <v>135</v>
@@ -3681,7 +3681,7 @@
         <v>1069</v>
       </c>
       <c r="E155" s="4">
-        <v>11622</v>
+        <v>11640</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>1894</v>
+        <v>1910</v>
       </c>
       <c r="C156" s="4">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D156" s="4">
-        <v>773</v>
+        <v>814</v>
       </c>
       <c r="E156" s="4">
-        <v>3313</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,7 +3706,7 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C157" s="4">
         <v>111</v>
@@ -3715,7 +3715,7 @@
         <v>382</v>
       </c>
       <c r="E157" s="4">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="C158" s="4">
         <v>45</v>
       </c>
       <c r="D158" s="4">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E158" s="4">
-        <v>1985</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>24525</v>
+        <v>24628</v>
       </c>
       <c r="C159" s="4">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D159" s="4">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="E159" s="4">
-        <v>26603</v>
+        <v>26711</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>47252</v>
+        <v>47446</v>
       </c>
       <c r="C160" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D160" s="4">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="E160" s="4">
-        <v>50640</v>
+        <v>50839</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="C161" s="4">
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E161" s="4">
-        <v>2933</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>193236</v>
+        <v>193867</v>
       </c>
       <c r="C162" s="4">
-        <v>9100</v>
+        <v>9123</v>
       </c>
       <c r="D162" s="4">
-        <v>35981</v>
+        <v>36153</v>
       </c>
       <c r="E162" s="4">
-        <v>238317</v>
+        <v>239143</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3814,10 +3814,10 @@
         <v>34</v>
       </c>
       <c r="D163" s="4">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E163" s="4">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>21987</v>
+        <v>22124</v>
       </c>
       <c r="C164" s="4">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="D164" s="4">
-        <v>2855</v>
+        <v>2871</v>
       </c>
       <c r="E164" s="4">
-        <v>25768</v>
+        <v>25925</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C165" s="4">
         <v>20</v>
       </c>
       <c r="D165" s="4">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E165" s="4">
-        <v>2179</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>37989</v>
+        <v>38012</v>
       </c>
       <c r="C166" s="4">
-        <v>4861</v>
+        <v>4880</v>
       </c>
       <c r="D166" s="4">
-        <v>26937</v>
+        <v>26949</v>
       </c>
       <c r="E166" s="4">
-        <v>69787</v>
+        <v>69841</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>13233</v>
+        <v>13263</v>
       </c>
       <c r="C167" s="4">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D167" s="4">
-        <v>3886</v>
+        <v>3891</v>
       </c>
       <c r="E167" s="4">
-        <v>17895</v>
+        <v>17932</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,7 +3893,7 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="C168" s="4">
         <v>79</v>
@@ -3902,7 +3902,7 @@
         <v>824</v>
       </c>
       <c r="E168" s="4">
-        <v>4609</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,7 +3910,7 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>3969</v>
+        <v>3977</v>
       </c>
       <c r="C169" s="4">
         <v>47</v>
@@ -3919,7 +3919,7 @@
         <v>1964</v>
       </c>
       <c r="E169" s="4">
-        <v>5980</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>8801</v>
+        <v>8832</v>
       </c>
       <c r="C170" s="4">
         <v>506</v>
       </c>
       <c r="D170" s="4">
-        <v>1951</v>
+        <v>1958</v>
       </c>
       <c r="E170" s="4">
-        <v>11258</v>
+        <v>11296</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>280377</v>
+        <v>282778</v>
       </c>
       <c r="C171" s="4">
-        <v>14223</v>
+        <v>14248</v>
       </c>
       <c r="D171" s="4">
-        <v>21602</v>
+        <v>22026</v>
       </c>
       <c r="E171" s="4">
-        <v>316202</v>
+        <v>319052</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6755</v>
+        <v>6759</v>
       </c>
       <c r="C172" s="4">
         <v>122</v>
       </c>
       <c r="D172" s="4">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E172" s="4">
-        <v>8165</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4618</v>
+        <v>4623</v>
       </c>
       <c r="C173" s="4">
         <v>608</v>
       </c>
       <c r="D173" s="4">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="E173" s="4">
-        <v>7817</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C174" s="4">
         <v>6</v>
       </c>
       <c r="D174" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E174" s="4">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>33638</v>
+        <v>33746</v>
       </c>
       <c r="C175" s="4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D175" s="4">
-        <v>3289</v>
+        <v>3297</v>
       </c>
       <c r="E175" s="4">
-        <v>37928</v>
+        <v>38045</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>21796</v>
+        <v>21830</v>
       </c>
       <c r="C176" s="4">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D176" s="4">
-        <v>5967</v>
+        <v>5985</v>
       </c>
       <c r="E176" s="4">
-        <v>29194</v>
+        <v>29247</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2788</v>
+        <v>2795</v>
       </c>
       <c r="C177" s="4">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D177" s="4">
-        <v>1187</v>
+        <v>1216</v>
       </c>
       <c r="E177" s="4">
-        <v>4704</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>6151</v>
+        <v>6161</v>
       </c>
       <c r="C178" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D178" s="4">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="E178" s="4">
-        <v>8492</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>179985</v>
+        <v>180619</v>
       </c>
       <c r="C179" s="4">
-        <v>35108</v>
+        <v>35341</v>
       </c>
       <c r="D179" s="4">
-        <v>28189</v>
+        <v>28487</v>
       </c>
       <c r="E179" s="4">
-        <v>243282</v>
+        <v>244447</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C180" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D180" s="4">
         <v>215</v>
       </c>
       <c r="E180" s="4">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>22023</v>
+        <v>22153</v>
       </c>
       <c r="C182" s="4">
-        <v>4900</v>
+        <v>4902</v>
       </c>
       <c r="D182" s="4">
-        <v>5871</v>
+        <v>6039</v>
       </c>
       <c r="E182" s="4">
-        <v>32794</v>
+        <v>33094</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>11128</v>
+        <v>11163</v>
       </c>
       <c r="C183" s="4">
         <v>843</v>
       </c>
       <c r="D183" s="4">
-        <v>2975</v>
+        <v>2991</v>
       </c>
       <c r="E183" s="4">
-        <v>14946</v>
+        <v>14997</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7313</v>
+        <v>7327</v>
       </c>
       <c r="C184" s="4">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D184" s="4">
-        <v>1449</v>
+        <v>1459</v>
       </c>
       <c r="E184" s="4">
-        <v>9644</v>
+        <v>9672</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>54491</v>
+        <v>54706</v>
       </c>
       <c r="C185" s="4">
-        <v>5437</v>
+        <v>5442</v>
       </c>
       <c r="D185" s="4">
-        <v>11259</v>
+        <v>11364</v>
       </c>
       <c r="E185" s="4">
-        <v>71187</v>
+        <v>71512</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,7 +4199,7 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="C186" s="4">
         <v>61</v>
@@ -4208,7 +4208,7 @@
         <v>793</v>
       </c>
       <c r="E186" s="4">
-        <v>2508</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8328</v>
+        <v>8340</v>
       </c>
       <c r="C187" s="4">
         <v>82</v>
       </c>
       <c r="D187" s="4">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E187" s="4">
-        <v>9013</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>23099</v>
+        <v>23186</v>
       </c>
       <c r="C188" s="4">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D188" s="4">
-        <v>3124</v>
+        <v>3209</v>
       </c>
       <c r="E188" s="4">
-        <v>27255</v>
+        <v>27428</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>61610</v>
+        <v>61726</v>
       </c>
       <c r="C189" s="4">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="D189" s="4">
-        <v>7248</v>
+        <v>7282</v>
       </c>
       <c r="E189" s="4">
-        <v>71489</v>
+        <v>71640</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>6825</v>
+        <v>6826</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
@@ -4276,7 +4276,7 @@
         <v>476</v>
       </c>
       <c r="E190" s="4">
-        <v>7336</v>
+        <v>7337</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2295</v>
+        <v>2303</v>
       </c>
       <c r="C191" s="4">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D191" s="4">
         <v>392</v>
       </c>
       <c r="E191" s="4">
-        <v>3043</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>38919</v>
+        <v>38963</v>
       </c>
       <c r="C192" s="4">
-        <v>4911</v>
+        <v>4913</v>
       </c>
       <c r="D192" s="4">
-        <v>7057</v>
+        <v>7083</v>
       </c>
       <c r="E192" s="4">
-        <v>50887</v>
+        <v>50959</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C193" s="4">
         <v>26</v>
       </c>
       <c r="D193" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E193" s="4">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="C194" s="4">
         <v>61</v>
       </c>
       <c r="D194" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E194" s="4">
-        <v>2064</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>4910</v>
+        <v>4914</v>
       </c>
       <c r="C195" s="4">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D195" s="4">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="E195" s="4">
-        <v>6227</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4522</v>
+        <v>4529</v>
       </c>
       <c r="C196" s="4">
         <v>114</v>
       </c>
       <c r="D196" s="4">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E196" s="4">
-        <v>4907</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3403</v>
+        <v>3407</v>
       </c>
       <c r="C197" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D197" s="4">
-        <v>1603</v>
+        <v>1652</v>
       </c>
       <c r="E197" s="4">
-        <v>5334</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C198" s="4">
         <v>18</v>
@@ -4412,7 +4412,7 @@
         <v>28</v>
       </c>
       <c r="E198" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>9507</v>
+        <v>9523</v>
       </c>
       <c r="C199" s="4">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D199" s="4">
         <v>4163</v>
       </c>
       <c r="E199" s="4">
-        <v>13907</v>
+        <v>13928</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>59316</v>
+        <v>59600</v>
       </c>
       <c r="C200" s="4">
-        <v>4572</v>
+        <v>4587</v>
       </c>
       <c r="D200" s="4">
-        <v>3424</v>
+        <v>3468</v>
       </c>
       <c r="E200" s="4">
-        <v>67312</v>
+        <v>67655</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5080</v>
+        <v>5088</v>
       </c>
       <c r="C201" s="4">
         <v>135</v>
       </c>
       <c r="D201" s="4">
-        <v>1957</v>
+        <v>1971</v>
       </c>
       <c r="E201" s="4">
-        <v>7172</v>
+        <v>7194</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>15223</v>
+        <v>15246</v>
       </c>
       <c r="C202" s="4">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="D202" s="4">
-        <v>1431</v>
+        <v>1438</v>
       </c>
       <c r="E202" s="4">
-        <v>18402</v>
+        <v>18434</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4628</v>
+        <v>4637</v>
       </c>
       <c r="C203" s="4">
         <v>355</v>
       </c>
       <c r="D203" s="4">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="E203" s="4">
-        <v>6241</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4521</v>
+        <v>4539</v>
       </c>
       <c r="C204" s="4">
         <v>56</v>
       </c>
       <c r="D204" s="4">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="E204" s="4">
-        <v>5791</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>12393</v>
+        <v>12579</v>
       </c>
       <c r="C205" s="4">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="D205" s="4">
-        <v>1580</v>
+        <v>1609</v>
       </c>
       <c r="E205" s="4">
-        <v>15291</v>
+        <v>15508</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>23835</v>
+        <v>23939</v>
       </c>
       <c r="C206" s="4">
-        <v>6417</v>
+        <v>6468</v>
       </c>
       <c r="D206" s="4">
-        <v>9742</v>
+        <v>9861</v>
       </c>
       <c r="E206" s="4">
-        <v>39994</v>
+        <v>40268</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="C207" s="4">
         <v>74</v>
       </c>
       <c r="D207" s="4">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="E207" s="4">
-        <v>3748</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4579,10 +4579,10 @@
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E208" s="4">
-        <v>1116</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C210" s="4">
         <v>63</v>
       </c>
       <c r="D210" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E210" s="4">
-        <v>1026</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10023</v>
+        <v>10040</v>
       </c>
       <c r="C211" s="4">
         <v>350</v>
       </c>
       <c r="D211" s="4">
-        <v>1932</v>
+        <v>1949</v>
       </c>
       <c r="E211" s="4">
-        <v>12305</v>
+        <v>12339</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>150506</v>
+        <v>151261</v>
       </c>
       <c r="C213" s="4">
-        <v>8580</v>
+        <v>8589</v>
       </c>
       <c r="D213" s="4">
-        <v>13466</v>
+        <v>13503</v>
       </c>
       <c r="E213" s="4">
-        <v>172552</v>
+        <v>173353</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3601</v>
+        <v>3608</v>
       </c>
       <c r="C214" s="4">
         <v>347</v>
       </c>
       <c r="D214" s="4">
-        <v>3428</v>
+        <v>3448</v>
       </c>
       <c r="E214" s="4">
-        <v>7376</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>39850</v>
+        <v>40022</v>
       </c>
       <c r="C215" s="4">
         <v>476</v>
       </c>
       <c r="D215" s="4">
-        <v>3349</v>
+        <v>3359</v>
       </c>
       <c r="E215" s="4">
-        <v>43675</v>
+        <v>43857</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2135</v>
+        <v>2141</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="E216" s="4">
-        <v>3507</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4732,10 +4732,10 @@
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E217" s="4">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E218" s="4">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4766,10 +4766,10 @@
         <v>24</v>
       </c>
       <c r="D219" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E219" s="4">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1281337</v>
+        <v>1288367</v>
       </c>
       <c r="C221" s="4">
-        <v>82072</v>
+        <v>82232</v>
       </c>
       <c r="D221" s="4">
-        <v>112255</v>
+        <v>113488</v>
       </c>
       <c r="E221" s="4">
-        <v>1475664</v>
+        <v>1484087</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>73988</v>
+        <v>74686</v>
       </c>
       <c r="C222" s="4">
-        <v>2943</v>
+        <v>2948</v>
       </c>
       <c r="D222" s="4">
-        <v>27537</v>
+        <v>27706</v>
       </c>
       <c r="E222" s="4">
-        <v>104468</v>
+        <v>105340</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,7 +4828,7 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
@@ -4837,7 +4837,7 @@
         <v>46</v>
       </c>
       <c r="E223" s="4">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="C224" s="4">
         <v>97</v>
       </c>
       <c r="D224" s="4">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="E224" s="4">
-        <v>3720</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C225" s="4">
         <v>19</v>
       </c>
       <c r="D225" s="4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E225" s="4">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>19223</v>
+        <v>19243</v>
       </c>
       <c r="C226" s="4">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="D226" s="4">
         <v>2659</v>
       </c>
       <c r="E226" s="4">
-        <v>22870</v>
+        <v>22893</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>64766</v>
+        <v>64989</v>
       </c>
       <c r="C227" s="4">
-        <v>1372</v>
+        <v>1379</v>
       </c>
       <c r="D227" s="4">
-        <v>31304</v>
+        <v>31525</v>
       </c>
       <c r="E227" s="4">
-        <v>97442</v>
+        <v>97893</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>771606</v>
+        <v>775746</v>
       </c>
       <c r="C228" s="4">
-        <v>36573</v>
+        <v>36619</v>
       </c>
       <c r="D228" s="4">
-        <v>78381</v>
+        <v>79242</v>
       </c>
       <c r="E228" s="4">
-        <v>886560</v>
+        <v>891607</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>8371</v>
+        <v>8414</v>
       </c>
       <c r="C229" s="4">
         <v>203</v>
       </c>
       <c r="D229" s="4">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="E229" s="4">
-        <v>10373</v>
+        <v>10422</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7387</v>
+        <v>7401</v>
       </c>
       <c r="C230" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D230" s="4">
-        <v>3238</v>
+        <v>3276</v>
       </c>
       <c r="E230" s="4">
-        <v>11444</v>
+        <v>11497</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>8647</v>
+        <v>8670</v>
       </c>
       <c r="C231" s="4">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="D231" s="4">
-        <v>2554</v>
+        <v>2562</v>
       </c>
       <c r="E231" s="4">
-        <v>12919</v>
+        <v>12954</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>19921</v>
+        <v>20054</v>
       </c>
       <c r="C233" s="4">
         <v>322</v>
       </c>
       <c r="D233" s="4">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="E233" s="4">
-        <v>20978</v>
+        <v>21121</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>36094</v>
+        <v>36199</v>
       </c>
       <c r="C234" s="4">
         <v>1053</v>
       </c>
       <c r="D234" s="4">
-        <v>4543</v>
+        <v>4557</v>
       </c>
       <c r="E234" s="4">
-        <v>41690</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>15153</v>
+        <v>15178</v>
       </c>
       <c r="C235" s="4">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D235" s="4">
-        <v>4067</v>
+        <v>4108</v>
       </c>
       <c r="E235" s="4">
-        <v>20845</v>
+        <v>20913</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>32454</v>
+        <v>32566</v>
       </c>
       <c r="C236" s="4">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="D236" s="4">
-        <v>9055</v>
+        <v>9206</v>
       </c>
       <c r="E236" s="4">
-        <v>42805</v>
+        <v>43072</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>78300</v>
+        <v>78692</v>
       </c>
       <c r="C237" s="4">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="D237" s="4">
-        <v>4829</v>
+        <v>4849</v>
       </c>
       <c r="E237" s="4">
-        <v>84154</v>
+        <v>84570</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>24580</v>
+        <v>24758</v>
       </c>
       <c r="C238" s="4">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D238" s="4">
-        <v>1266</v>
+        <v>1292</v>
       </c>
       <c r="E238" s="4">
-        <v>26507</v>
+        <v>26712</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,7 +5100,7 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>3932</v>
+        <v>3934</v>
       </c>
       <c r="C239" s="4">
         <v>109</v>
@@ -5109,7 +5109,7 @@
         <v>240</v>
       </c>
       <c r="E239" s="4">
-        <v>4281</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>30129</v>
+        <v>30183</v>
       </c>
       <c r="C240" s="4">
         <v>483</v>
       </c>
       <c r="D240" s="4">
-        <v>2715</v>
+        <v>2724</v>
       </c>
       <c r="E240" s="4">
-        <v>33327</v>
+        <v>33390</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>289153</v>
+        <v>290855</v>
       </c>
       <c r="C241" s="4">
         <v>4058</v>
       </c>
       <c r="D241" s="4">
-        <v>29189</v>
+        <v>29455</v>
       </c>
       <c r="E241" s="4">
-        <v>322400</v>
+        <v>324368</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>25841</v>
+        <v>25923</v>
       </c>
       <c r="C242" s="4">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D242" s="4">
-        <v>1548</v>
+        <v>1561</v>
       </c>
       <c r="E242" s="4">
-        <v>28080</v>
+        <v>28177</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5174,10 +5174,10 @@
         <v>81</v>
       </c>
       <c r="D243" s="4">
-        <v>1581</v>
+        <v>1617</v>
       </c>
       <c r="E243" s="4">
-        <v>3125</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>92400</v>
+        <v>92450</v>
       </c>
       <c r="C244" s="4">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="D244" s="4">
-        <v>13876</v>
+        <v>14174</v>
       </c>
       <c r="E244" s="4">
-        <v>107899</v>
+        <v>108250</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>9850</v>
+        <v>9852</v>
       </c>
       <c r="C245" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D245" s="4">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="E245" s="4">
-        <v>13000</v>
+        <v>13006</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>18063</v>
+        <v>18125</v>
       </c>
       <c r="C246" s="4">
         <v>151</v>
       </c>
       <c r="D246" s="4">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="E246" s="4">
-        <v>18928</v>
+        <v>18998</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>327030</v>
+        <v>329061</v>
       </c>
       <c r="C247" s="4">
-        <v>12899</v>
+        <v>12928</v>
       </c>
       <c r="D247" s="4">
-        <v>32021</v>
+        <v>32588</v>
       </c>
       <c r="E247" s="4">
-        <v>371950</v>
+        <v>374577</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>24477</v>
+        <v>24573</v>
       </c>
       <c r="C248" s="4">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D248" s="4">
-        <v>4720</v>
+        <v>4744</v>
       </c>
       <c r="E248" s="4">
-        <v>30018</v>
+        <v>30139</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C249" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D249" s="4">
         <v>128</v>
       </c>
       <c r="E249" s="4">
-        <v>1047</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>36754</v>
+        <v>37116</v>
       </c>
       <c r="C250" s="4">
-        <v>2847</v>
+        <v>2858</v>
       </c>
       <c r="D250" s="4">
-        <v>3781</v>
+        <v>3799</v>
       </c>
       <c r="E250" s="4">
-        <v>43382</v>
+        <v>43773</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>13774</v>
+        <v>13804</v>
       </c>
       <c r="C251" s="4">
         <v>1694</v>
       </c>
       <c r="D251" s="4">
-        <v>2431</v>
+        <v>2439</v>
       </c>
       <c r="E251" s="4">
-        <v>17899</v>
+        <v>17937</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2038</v>
+        <v>2052</v>
       </c>
       <c r="C252" s="4">
         <v>78</v>
       </c>
       <c r="D252" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E252" s="4">
-        <v>2462</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>5785</v>
+        <v>5804</v>
       </c>
       <c r="C253" s="4">
         <v>422</v>
       </c>
       <c r="D253" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E253" s="4">
-        <v>7383</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>13769</v>
+        <v>13798</v>
       </c>
       <c r="C254" s="4">
         <v>110</v>
       </c>
       <c r="D254" s="4">
-        <v>2159</v>
+        <v>2582</v>
       </c>
       <c r="E254" s="4">
-        <v>16038</v>
+        <v>16490</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>7875</v>
+        <v>7928</v>
       </c>
       <c r="C255" s="4">
         <v>205</v>
       </c>
       <c r="D255" s="4">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="E255" s="4">
-        <v>8364</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>126690</v>
+        <v>126777</v>
       </c>
       <c r="C256" s="4">
-        <v>4870</v>
+        <v>5083</v>
       </c>
       <c r="D256" s="4">
-        <v>2589</v>
+        <v>2608</v>
       </c>
       <c r="E256" s="4">
-        <v>134149</v>
+        <v>134468</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>17605821</v>
+        <v>17694874</v>
       </c>
       <c r="C257" s="4">
-        <v>931104</v>
+        <v>933639</v>
       </c>
       <c r="D257" s="4">
-        <v>1849176</v>
+        <v>1868992</v>
       </c>
       <c r="E257" s="4">
-        <v>20386101</v>
+        <v>20497505</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
